--- a/biology/Zoologie/Bucconidae/Bucconidae.xlsx
+++ b/biology/Zoologie/Bucconidae/Bucconidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bucconidae (ou Bucconidés en français) sont une famille d'oiseaux constituée de 10 genres et de 37 espèces existantes de tamatias et de barbacous.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bucconidés sont des oiseaux percheurs de taille petite à moyenne (13 à 29 cm), à grosse tête et courtes ailes arrondies. Ils ont le corps trapu, de petites pattes et une queue étroite. Leur plumage est doux, de gris-brun à contrasté.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille est endémique de la zone néotropicale (Amérique centrale et du Sud), dans des milieux boisés, surtout de plaine.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,6 +618,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,6 +646,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -651,7 +673,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bucco Brisson, 1760 (4 espèces)
 Chelidoptera Gould, 1837 (1 espèce)
@@ -690,7 +714,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
